--- a/simulation_data/two_step_algorithm/2s_error_level_1_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_1_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.4499393942739</v>
+        <v>93.411138613883</v>
       </c>
       <c r="D2" t="n">
-        <v>1.412497285124957</v>
+        <v>1.21569969735641</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.20468243106829</v>
+        <v>92.22311221087303</v>
       </c>
       <c r="D3" t="n">
-        <v>1.476848950028837</v>
+        <v>1.467275898092602</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.15792579810081</v>
+        <v>90.81529204958755</v>
       </c>
       <c r="D4" t="n">
-        <v>1.507453367141449</v>
+        <v>1.404478279214741</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.97630692052253</v>
+        <v>90.09313921323825</v>
       </c>
       <c r="D5" t="n">
-        <v>1.485392776790268</v>
+        <v>1.420661174985904</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.21644331631038</v>
+        <v>89.18947865501157</v>
       </c>
       <c r="D6" t="n">
-        <v>1.444357263316096</v>
+        <v>1.390241335702853</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.69517810295577</v>
+        <v>88.08307103654339</v>
       </c>
       <c r="D7" t="n">
-        <v>1.289169610958889</v>
+        <v>1.365926206306334</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.74670959101395</v>
+        <v>86.58577034976047</v>
       </c>
       <c r="D8" t="n">
-        <v>1.466656616606224</v>
+        <v>1.270545777980217</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.69892885502603</v>
+        <v>85.61652791936558</v>
       </c>
       <c r="D9" t="n">
-        <v>1.426766543140809</v>
+        <v>1.350857922848857</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.38786047331782</v>
+        <v>84.40113191810786</v>
       </c>
       <c r="D10" t="n">
-        <v>1.394175438466778</v>
+        <v>1.526816396062944</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.56152616751589</v>
+        <v>83.61540183914308</v>
       </c>
       <c r="D11" t="n">
-        <v>1.286191004412521</v>
+        <v>1.370136297071947</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.58472729233542</v>
+        <v>82.47785243024671</v>
       </c>
       <c r="D12" t="n">
-        <v>1.361517988389372</v>
+        <v>1.304235328697963</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.96615715147546</v>
+        <v>81.47626855903819</v>
       </c>
       <c r="D13" t="n">
-        <v>1.474843260127125</v>
+        <v>1.422119360243713</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.18033402459913</v>
+        <v>80.16698951698351</v>
       </c>
       <c r="D14" t="n">
-        <v>1.468413816045081</v>
+        <v>1.268924255547009</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.07018107178595</v>
+        <v>79.29218544064879</v>
       </c>
       <c r="D15" t="n">
-        <v>1.378266018936164</v>
+        <v>1.447939794842652</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.17916004793673</v>
+        <v>78.36724827055238</v>
       </c>
       <c r="D16" t="n">
-        <v>1.356095178071197</v>
+        <v>1.482756960178886</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.0047674509017</v>
+        <v>76.79963968147095</v>
       </c>
       <c r="D17" t="n">
-        <v>1.447401674727532</v>
+        <v>1.504500032970022</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.90929466697126</v>
+        <v>75.99892233733168</v>
       </c>
       <c r="D18" t="n">
-        <v>1.440360523239055</v>
+        <v>1.273134529151197</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.93015315181428</v>
+        <v>74.82773059266533</v>
       </c>
       <c r="D19" t="n">
-        <v>1.340895883617409</v>
+        <v>1.391192105568376</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.82033492761849</v>
+        <v>73.60307110552361</v>
       </c>
       <c r="D20" t="n">
-        <v>1.406528172338447</v>
+        <v>1.250848276178051</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.66626437155642</v>
+        <v>72.59591951050513</v>
       </c>
       <c r="D21" t="n">
-        <v>1.508069396596084</v>
+        <v>1.354572701740765</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.70896374972649</v>
+        <v>71.83993965531241</v>
       </c>
       <c r="D22" t="n">
-        <v>1.337457927804734</v>
+        <v>1.546532191790908</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.79004403249429</v>
+        <v>70.74360552104652</v>
       </c>
       <c r="D23" t="n">
-        <v>1.50169288071883</v>
+        <v>1.437997473755455</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.36791980711928</v>
+        <v>69.58715237977313</v>
       </c>
       <c r="D24" t="n">
-        <v>1.438144159289891</v>
+        <v>1.348424929393316</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.3899280050438</v>
+        <v>68.52183713358228</v>
       </c>
       <c r="D25" t="n">
-        <v>1.49616392499151</v>
+        <v>1.203724618423037</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.45522233039064</v>
+        <v>67.59255101444911</v>
       </c>
       <c r="D26" t="n">
-        <v>1.464867666142529</v>
+        <v>1.379976105366949</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.31000552105283</v>
+        <v>66.08418184104568</v>
       </c>
       <c r="D27" t="n">
-        <v>1.363774110180075</v>
+        <v>1.229423453726837</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.25578044372554</v>
+        <v>65.12960106995318</v>
       </c>
       <c r="D28" t="n">
-        <v>1.450927517812308</v>
+        <v>1.381666029140669</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.21636852248039</v>
+        <v>64.14960824636333</v>
       </c>
       <c r="D29" t="n">
-        <v>1.403377598966279</v>
+        <v>1.305857692630011</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.00585940072754</v>
+        <v>63.07820697808101</v>
       </c>
       <c r="D30" t="n">
-        <v>1.356763741167724</v>
+        <v>1.385734428281383</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35471895658377</v>
+        <v>61.85334053509083</v>
       </c>
       <c r="D31" t="n">
-        <v>1.232308700704179</v>
+        <v>1.223214146826849</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.99575661283772</v>
+        <v>60.90518900799781</v>
       </c>
       <c r="D32" t="n">
-        <v>1.472775660783894</v>
+        <v>1.252201361944474</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.04750512598271</v>
+        <v>59.8965364333723</v>
       </c>
       <c r="D33" t="n">
-        <v>1.393408294645547</v>
+        <v>1.329202505985073</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.05905432188784</v>
+        <v>58.86057188683499</v>
       </c>
       <c r="D34" t="n">
-        <v>1.355147754006556</v>
+        <v>1.388705564546808</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.66403044849396</v>
+        <v>57.97595390396411</v>
       </c>
       <c r="D35" t="n">
-        <v>1.365435066428449</v>
+        <v>1.415256825145801</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.41717791238769</v>
+        <v>56.89462040162358</v>
       </c>
       <c r="D36" t="n">
-        <v>1.25441892431714</v>
+        <v>1.379415232052209</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.73483039539515</v>
+        <v>55.74533871821654</v>
       </c>
       <c r="D37" t="n">
-        <v>1.21443588855795</v>
+        <v>1.276201770173228</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.70106971024935</v>
+        <v>54.71910529601431</v>
       </c>
       <c r="D38" t="n">
-        <v>1.347242742622878</v>
+        <v>1.07762972312855</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.60875510760568</v>
+        <v>53.58094289304013</v>
       </c>
       <c r="D39" t="n">
-        <v>1.457650984601462</v>
+        <v>1.156508414820948</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.64868102091233</v>
+        <v>52.6837838393677</v>
       </c>
       <c r="D40" t="n">
-        <v>1.523866198307894</v>
+        <v>1.484100154407423</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.45896913351672</v>
+        <v>51.73836138428234</v>
       </c>
       <c r="D41" t="n">
-        <v>1.345122177028041</v>
+        <v>1.270325413442788</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.56233028721041</v>
+        <v>50.43586729777771</v>
       </c>
       <c r="D42" t="n">
-        <v>1.26744878291694</v>
+        <v>1.301146967956611</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.61124163006171</v>
+        <v>49.46427719929085</v>
       </c>
       <c r="D43" t="n">
-        <v>1.223539028467944</v>
+        <v>1.265186167314547</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.44341450902616</v>
+        <v>48.47163293707651</v>
       </c>
       <c r="D44" t="n">
-        <v>1.444414653636186</v>
+        <v>1.329595334508946</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.33728503976324</v>
+        <v>47.30020057581974</v>
       </c>
       <c r="D45" t="n">
-        <v>1.255145348179807</v>
+        <v>1.410826673186647</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.33029909737372</v>
+        <v>46.45790282796845</v>
       </c>
       <c r="D46" t="n">
-        <v>1.300710438412369</v>
+        <v>1.4066976448605</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.31783883653756</v>
+        <v>45.42065432718832</v>
       </c>
       <c r="D47" t="n">
-        <v>1.435988258591635</v>
+        <v>1.478860979533082</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.4888092261146</v>
+        <v>44.36872518103976</v>
       </c>
       <c r="D48" t="n">
-        <v>1.483543039330826</v>
+        <v>1.212207379692952</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.27589923147934</v>
+        <v>43.17805365056667</v>
       </c>
       <c r="D49" t="n">
-        <v>1.241170624546453</v>
+        <v>1.304566501373442</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.31262700092375</v>
+        <v>42.32858084747373</v>
       </c>
       <c r="D50" t="n">
-        <v>1.172758387219085</v>
+        <v>1.143264261036464</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.29015620677933</v>
+        <v>41.15398062402878</v>
       </c>
       <c r="D51" t="n">
-        <v>1.373247485315616</v>
+        <v>1.187695832203509</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.15296962903451</v>
+        <v>40.26072970066934</v>
       </c>
       <c r="D52" t="n">
-        <v>1.308782069107205</v>
+        <v>1.45342114672631</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.29821856665458</v>
+        <v>39.17302691236915</v>
       </c>
       <c r="D53" t="n">
-        <v>1.354925500830838</v>
+        <v>1.437202631825045</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.17417769715237</v>
+        <v>38.19622899677697</v>
       </c>
       <c r="D54" t="n">
-        <v>1.418556050019879</v>
+        <v>1.279060463286818</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.07063005818024</v>
+        <v>37.1719274638005</v>
       </c>
       <c r="D55" t="n">
-        <v>1.214562577762273</v>
+        <v>1.292569357434149</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.91757021587169</v>
+        <v>36.1561313193074</v>
       </c>
       <c r="D56" t="n">
-        <v>1.381698573799436</v>
+        <v>1.408747553946709</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.06906774089504</v>
+        <v>35.07556933854426</v>
       </c>
       <c r="D57" t="n">
-        <v>1.29482041460064</v>
+        <v>1.298444741319358</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.43845189240417</v>
+        <v>33.93044087943343</v>
       </c>
       <c r="D58" t="n">
-        <v>1.454162417152465</v>
+        <v>1.315559703522227</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.32981700178902</v>
+        <v>33.07723260467678</v>
       </c>
       <c r="D59" t="n">
-        <v>1.396662046866463</v>
+        <v>1.458180645750231</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.14294921607568</v>
+        <v>31.98269081439025</v>
       </c>
       <c r="D60" t="n">
-        <v>1.31814900644054</v>
+        <v>1.162906117435331</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.08240987268013</v>
+        <v>31.05460028969005</v>
       </c>
       <c r="D61" t="n">
-        <v>1.330596174890531</v>
+        <v>1.247557096064549</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.063921155616</v>
+        <v>30.09506213288442</v>
       </c>
       <c r="D62" t="n">
-        <v>1.363927934434212</v>
+        <v>1.547755012794248</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.18809906246921</v>
+        <v>28.9672682000419</v>
       </c>
       <c r="D63" t="n">
-        <v>1.28441469444523</v>
+        <v>1.260456662903832</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.12784655756203</v>
+        <v>28.31051029411209</v>
       </c>
       <c r="D64" t="n">
-        <v>1.438774463772927</v>
+        <v>1.221002170249029</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.9914636999968</v>
+        <v>27.01026996569649</v>
       </c>
       <c r="D65" t="n">
-        <v>1.337534825433377</v>
+        <v>1.388531218492757</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.84965208841869</v>
+        <v>26.03319867972055</v>
       </c>
       <c r="D66" t="n">
-        <v>1.31388396566855</v>
+        <v>1.384467292495872</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.99681995771818</v>
+        <v>24.82528575335422</v>
       </c>
       <c r="D67" t="n">
-        <v>1.402572927159577</v>
+        <v>1.171553960161648</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.88934877517791</v>
+        <v>24.04627790981444</v>
       </c>
       <c r="D68" t="n">
-        <v>1.128686765160848</v>
+        <v>1.394953303676347</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.92435977019714</v>
+        <v>22.92452099722551</v>
       </c>
       <c r="D69" t="n">
-        <v>1.268940434110975</v>
+        <v>1.326846919972921</v>
       </c>
     </row>
   </sheetData>
